--- a/app/Licenciatura_em_Ciencias_Politicas_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Ciencias_Politicas_Pos_Laboral.xlsx
@@ -11,38 +11,36 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20150923" sheetId="2" r:id="rId5"/>
     <sheet name="20150925" sheetId="3" r:id="rId6"/>
-    <sheet name="20154391" sheetId="4" r:id="rId7"/>
-    <sheet name="20150927" sheetId="5" r:id="rId8"/>
-    <sheet name="20150924" sheetId="6" r:id="rId9"/>
-    <sheet name="20150916" sheetId="7" r:id="rId10"/>
-    <sheet name="20150914" sheetId="8" r:id="rId11"/>
-    <sheet name="20150930" sheetId="9" r:id="rId12"/>
-    <sheet name="20150921" sheetId="10" r:id="rId13"/>
-    <sheet name="20150928" sheetId="11" r:id="rId14"/>
-    <sheet name="20154399" sheetId="12" r:id="rId15"/>
-    <sheet name="20150913" sheetId="13" r:id="rId16"/>
-    <sheet name="20150926" sheetId="14" r:id="rId17"/>
-    <sheet name="20150915" sheetId="15" r:id="rId18"/>
-    <sheet name="20150911" sheetId="16" r:id="rId19"/>
-    <sheet name="20150907" sheetId="17" r:id="rId20"/>
-    <sheet name="20150920" sheetId="18" r:id="rId21"/>
-    <sheet name="20150912" sheetId="19" r:id="rId22"/>
-    <sheet name="20150931" sheetId="20" r:id="rId23"/>
-    <sheet name="20150909" sheetId="21" r:id="rId24"/>
-    <sheet name="20150910" sheetId="22" r:id="rId25"/>
-    <sheet name="20150933" sheetId="23" r:id="rId26"/>
-    <sheet name="20150919" sheetId="24" r:id="rId27"/>
-    <sheet name="20150929" sheetId="25" r:id="rId28"/>
-    <sheet name="20150918" sheetId="26" r:id="rId29"/>
-    <sheet name="20150904" sheetId="27" r:id="rId30"/>
-    <sheet name="20150908" sheetId="28" r:id="rId31"/>
-    <sheet name="20150922" sheetId="29" r:id="rId32"/>
-    <sheet name="20150905" sheetId="30" r:id="rId33"/>
-    <sheet name="20150917" sheetId="31" r:id="rId34"/>
-    <sheet name="20150932" sheetId="32" r:id="rId35"/>
-    <sheet name="20150906" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId38"/>
+    <sheet name="20150927" sheetId="4" r:id="rId7"/>
+    <sheet name="20150924" sheetId="5" r:id="rId8"/>
+    <sheet name="20150916" sheetId="6" r:id="rId9"/>
+    <sheet name="20150914" sheetId="7" r:id="rId10"/>
+    <sheet name="20150930" sheetId="8" r:id="rId11"/>
+    <sheet name="20150921" sheetId="9" r:id="rId12"/>
+    <sheet name="20150928" sheetId="10" r:id="rId13"/>
+    <sheet name="20150913" sheetId="11" r:id="rId14"/>
+    <sheet name="20150926" sheetId="12" r:id="rId15"/>
+    <sheet name="20150915" sheetId="13" r:id="rId16"/>
+    <sheet name="20150911" sheetId="14" r:id="rId17"/>
+    <sheet name="20150907" sheetId="15" r:id="rId18"/>
+    <sheet name="20150920" sheetId="16" r:id="rId19"/>
+    <sheet name="20150912" sheetId="17" r:id="rId20"/>
+    <sheet name="20150931" sheetId="18" r:id="rId21"/>
+    <sheet name="20150909" sheetId="19" r:id="rId22"/>
+    <sheet name="20150910" sheetId="20" r:id="rId23"/>
+    <sheet name="20150933" sheetId="21" r:id="rId24"/>
+    <sheet name="20150919" sheetId="22" r:id="rId25"/>
+    <sheet name="20150929" sheetId="23" r:id="rId26"/>
+    <sheet name="20150918" sheetId="24" r:id="rId27"/>
+    <sheet name="20150904" sheetId="25" r:id="rId28"/>
+    <sheet name="20150908" sheetId="26" r:id="rId29"/>
+    <sheet name="20150922" sheetId="27" r:id="rId30"/>
+    <sheet name="20150905" sheetId="28" r:id="rId31"/>
+    <sheet name="20150917" sheetId="29" r:id="rId32"/>
+    <sheet name="20150932" sheetId="30" r:id="rId33"/>
+    <sheet name="20150906" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -199,9 +197,6 @@
     <t>Maria</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -250,15 +245,6 @@
     <t>Escola Secundaria Eduardo Mondlane</t>
   </si>
   <si>
-    <t>Silva</t>
-  </si>
-  <si>
-    <t>Victor Ângelo</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Samula</t>
   </si>
   <si>
@@ -295,9 +281,6 @@
     <t>PaciÊncia Tanda GuiloviÇa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110501379231N</t>
   </si>
   <si>
@@ -322,9 +305,6 @@
     <t>Julieta Macaringue</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>100102519041I</t>
   </si>
   <si>
@@ -430,12 +410,6 @@
     <t>Outra - Prov Maputo</t>
   </si>
   <si>
-    <t>Matlava</t>
-  </si>
-  <si>
-    <t>Rosalina Salomão</t>
-  </si>
-  <si>
     <t>Massango</t>
   </si>
   <si>
@@ -547,9 +521,6 @@
     <t>Mae Incognita</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>100100341790J</t>
   </si>
   <si>
@@ -592,9 +563,6 @@
     <t>Maria Da Gloria A. Sengo</t>
   </si>
   <si>
-    <t>Distrito Municipal Katembe</t>
-  </si>
-  <si>
     <t>110602775240A</t>
   </si>
   <si>
@@ -740,9 +708,6 @@
   </si>
   <si>
     <t>Julia Simao Manhica</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
   </si>
   <si>
     <t>110302139652C</t>
@@ -2131,7 +2096,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150921</v>
+        <v>20150928</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2155,7 +2120,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2171,7 +2136,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2187,7 +2152,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2203,7 +2168,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2219,7 +2184,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2234,9 +2199,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2244,7 +2207,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2255,7 +2218,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2264,7 +2227,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2276,7 +2239,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2284,7 +2247,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2380,7 +2343,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2407,7 +2370,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2423,7 +2386,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2726,7 +2689,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150928</v>
+        <v>20150913</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2750,7 +2713,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2766,7 +2729,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2782,7 +2745,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2798,7 +2761,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2814,7 +2777,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2829,9 +2792,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2839,7 +2800,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2850,7 +2811,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2859,7 +2820,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2871,15 +2832,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>123</v>
+      <c r="H17" s="20">
+        <v>1026455</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2975,7 +2936,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3002,7 +2963,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3018,7 +2979,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3269,7 +3230,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3319,7 +3282,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154399</v>
+        <v>20150926</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3343,7 +3306,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3359,7 +3322,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3374,7 +3337,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -3388,7 +3353,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -3402,7 +3369,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -3423,7 +3392,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -3432,14 +3403,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -3449,13 +3424,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -3550,7 +3529,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3576,7 +3555,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -3590,7 +3571,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -3892,7 +3875,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150913</v>
+        <v>20150915</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3916,7 +3899,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3932,7 +3915,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3948,7 +3931,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3964,7 +3947,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3980,7 +3963,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3995,9 +3978,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4005,7 +3986,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4016,7 +3997,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4025,7 +4006,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4037,15 +4018,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>1026455</v>
+      <c r="H17" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4141,7 +4122,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4184,7 +4165,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4487,7 +4468,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150926</v>
+        <v>20150911</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4511,7 +4492,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4527,7 +4508,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4543,7 +4524,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4559,7 +4540,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4575,7 +4556,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4590,9 +4571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4600,7 +4579,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4611,7 +4590,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4620,7 +4599,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4632,15 +4611,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>141</v>
+      <c r="H17" s="20">
+        <v>383062</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4736,7 +4715,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4779,7 +4758,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5082,7 +5061,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150915</v>
+        <v>20150907</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5106,7 +5085,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5122,7 +5101,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5138,7 +5117,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5154,7 +5133,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5170,7 +5149,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5185,9 +5164,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5195,7 +5172,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5206,7 +5183,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5215,7 +5192,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5227,7 +5204,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5235,7 +5212,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5331,7 +5308,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5374,7 +5351,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5677,7 +5654,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150911</v>
+        <v>20150920</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5701,7 +5678,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5717,7 +5694,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5733,7 +5710,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5749,7 +5726,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5765,7 +5742,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5780,9 +5757,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5790,7 +5765,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5801,7 +5776,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5810,7 +5785,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5822,7 +5797,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5830,7 +5805,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20">
-        <v>383062</v>
+        <v>2170589</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5926,7 +5901,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5953,7 +5928,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5969,7 +5944,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6272,7 +6247,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150907</v>
+        <v>20150912</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6296,7 +6271,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6312,7 +6287,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6328,7 +6303,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6344,7 +6319,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6360,7 +6335,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6375,9 +6350,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6385,7 +6358,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6396,7 +6369,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6405,7 +6378,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6417,7 +6390,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6425,7 +6398,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6521,7 +6494,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6548,7 +6521,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6564,7 +6537,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6867,7 +6840,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150920</v>
+        <v>20150931</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6891,7 +6864,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6907,7 +6880,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6923,7 +6896,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6939,7 +6912,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6955,7 +6928,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6970,9 +6943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6980,7 +6951,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6991,7 +6962,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7000,7 +6971,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7012,7 +6983,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7020,7 +6991,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20">
-        <v>2170589</v>
+        <v>110600693396</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7116,7 +7087,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7143,7 +7114,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7159,7 +7130,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7462,7 +7433,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150912</v>
+        <v>20150909</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7486,7 +7457,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7502,7 +7473,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7518,7 +7489,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7534,7 +7505,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7550,7 +7521,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7565,9 +7536,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7575,7 +7544,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7586,7 +7555,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7595,7 +7564,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7607,7 +7576,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7615,7 +7584,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7711,7 +7680,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7738,7 +7707,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7754,7 +7723,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8160,9 +8129,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8170,7 +8137,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8181,7 +8148,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8190,7 +8157,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8202,7 +8169,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8210,7 +8177,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8306,7 +8273,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8349,7 +8316,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8652,7 +8619,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150931</v>
+        <v>20150910</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8676,7 +8643,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8692,7 +8659,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8708,7 +8675,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8724,7 +8691,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8740,7 +8707,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8755,9 +8722,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8765,7 +8730,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8776,7 +8741,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8785,7 +8750,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8797,15 +8762,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110600693396</v>
+      <c r="H17" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8901,7 +8866,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8928,7 +8893,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8944,7 +8909,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9247,7 +9212,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150909</v>
+        <v>20150933</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9271,7 +9236,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9287,7 +9252,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9303,7 +9268,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9319,7 +9284,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9335,7 +9300,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9350,9 +9315,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9360,7 +9323,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9371,7 +9334,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9380,7 +9343,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9392,7 +9355,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9400,7 +9363,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9496,7 +9459,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9523,7 +9486,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9539,7 +9502,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9842,7 +9805,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150910</v>
+        <v>20150919</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9866,7 +9829,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9882,7 +9845,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9898,7 +9861,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9914,7 +9877,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9930,7 +9893,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9945,9 +9908,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9955,7 +9916,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9966,7 +9927,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9975,7 +9936,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9987,7 +9948,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9995,7 +9956,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10091,7 +10052,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10134,7 +10095,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10437,7 +10398,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150933</v>
+        <v>20150929</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10461,7 +10422,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10477,7 +10438,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10493,7 +10454,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10509,7 +10470,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10525,7 +10486,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10540,9 +10501,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10550,7 +10509,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10561,7 +10520,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10570,7 +10529,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10582,7 +10541,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10590,7 +10549,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10686,7 +10645,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10729,7 +10688,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11032,7 +10991,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150919</v>
+        <v>20150918</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11056,7 +11015,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11072,7 +11031,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11088,7 +11047,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11104,7 +11063,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11120,7 +11079,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11135,9 +11094,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11145,7 +11102,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11156,7 +11113,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11165,7 +11122,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11177,7 +11134,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11185,7 +11142,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11281,7 +11238,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11308,7 +11265,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11324,7 +11281,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11627,7 +11584,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150929</v>
+        <v>20150904</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11651,7 +11608,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11667,7 +11624,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11683,7 +11640,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11699,7 +11656,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11715,7 +11672,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11730,9 +11687,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11740,7 +11695,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11751,7 +11706,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11760,7 +11715,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11772,7 +11727,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11780,7 +11735,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11876,7 +11831,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11919,7 +11874,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12222,7 +12177,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150918</v>
+        <v>20150908</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12246,7 +12201,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12262,7 +12217,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12278,7 +12233,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12294,7 +12249,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12310,7 +12265,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12325,9 +12280,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>230</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12335,7 +12288,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12346,7 +12299,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12355,7 +12308,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12367,7 +12320,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12375,7 +12328,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12471,7 +12424,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12514,7 +12467,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12817,7 +12770,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150904</v>
+        <v>20150922</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12841,7 +12794,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12857,7 +12810,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12873,7 +12826,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12889,7 +12842,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12905,7 +12858,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12920,9 +12873,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12930,7 +12881,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12941,7 +12892,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12950,7 +12901,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12962,7 +12913,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12970,7 +12921,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13066,7 +13017,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13093,7 +13044,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13109,7 +13060,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13412,7 +13363,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150908</v>
+        <v>20150905</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13436,7 +13387,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13452,7 +13403,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13468,7 +13419,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13484,7 +13435,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13500,7 +13451,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13515,9 +13466,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13525,7 +13474,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13536,7 +13485,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13545,7 +13494,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13557,7 +13506,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13565,7 +13514,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13661,7 +13610,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13688,7 +13637,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13704,7 +13653,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14007,7 +13956,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150922</v>
+        <v>20150917</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14031,7 +13980,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14047,7 +13996,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14063,7 +14012,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14079,7 +14028,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14095,7 +14044,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14110,9 +14059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14120,7 +14067,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14131,7 +14078,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14140,7 +14087,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14152,7 +14099,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14160,7 +14107,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14256,7 +14203,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14283,7 +14230,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14299,7 +14246,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14626,7 +14573,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14642,7 +14589,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14658,7 +14605,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14674,7 +14621,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14690,7 +14637,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14705,9 +14652,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14715,7 +14660,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14726,7 +14671,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14735,7 +14680,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14747,7 +14692,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14755,7 +14700,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14851,7 +14796,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14894,7 +14839,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15197,7 +15142,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150905</v>
+        <v>20150932</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15221,7 +15166,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15237,7 +15182,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15253,7 +15198,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15269,7 +15214,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15285,7 +15230,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15300,9 +15245,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15310,7 +15253,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15321,7 +15264,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15330,7 +15273,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15342,7 +15285,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15350,7 +15293,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15446,7 +15389,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15473,7 +15416,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15489,7 +15432,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15792,7 +15735,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150917</v>
+        <v>20150906</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15816,7 +15759,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15832,7 +15775,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15848,7 +15791,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15864,7 +15807,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15880,7 +15823,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15895,9 +15838,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15905,7 +15846,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15916,7 +15857,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15925,7 +15866,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15937,7 +15878,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15945,7 +15886,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16041,7 +15982,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16068,7 +16009,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16084,7 +16025,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16287,1196 +16228,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150932</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2003</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150906</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -17500,7 +16251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17581,7 +16332,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -17631,7 +16384,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154391</v>
+        <v>20150927</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17655,7 +16408,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17671,7 +16424,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17686,7 +16439,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -17700,7 +16455,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -17714,7 +16471,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -17735,7 +16494,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -17744,14 +16505,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -17761,13 +16526,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>110102020439</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -17862,7 +16631,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17888,7 +16657,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -17902,7 +16673,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -18204,7 +16977,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150927</v>
+        <v>20150924</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18228,7 +17001,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18244,7 +17017,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18260,7 +17033,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18276,7 +17049,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18292,7 +17065,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18307,9 +17080,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18317,7 +17088,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18328,7 +17099,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18337,7 +17108,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18349,15 +17120,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>110102020439</v>
+      <c r="H17" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18453,7 +17224,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18496,7 +17267,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18799,7 +17570,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150924</v>
+        <v>20150916</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18823,7 +17594,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18839,7 +17610,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18855,7 +17626,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18871,7 +17642,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18887,7 +17658,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18902,9 +17673,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18912,7 +17681,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18923,7 +17692,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18932,7 +17701,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18944,7 +17713,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18952,7 +17721,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19048,7 +17817,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19075,7 +17844,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19091,7 +17860,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19394,7 +18163,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150916</v>
+        <v>20150914</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19418,7 +18187,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19434,7 +18203,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19450,7 +18219,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19466,7 +18235,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19482,7 +18251,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19497,9 +18266,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19507,7 +18274,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19518,7 +18285,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19527,7 +18294,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19539,7 +18306,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19547,7 +18314,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19643,7 +18410,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19670,7 +18437,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19686,7 +18453,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19989,7 +18756,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150914</v>
+        <v>20150930</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20013,7 +18780,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20029,7 +18796,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20045,7 +18812,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20061,7 +18828,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20077,7 +18844,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20092,9 +18859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20102,7 +18867,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20113,7 +18878,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20122,7 +18887,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20134,7 +18899,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20142,7 +18907,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20238,7 +19003,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20265,7 +19030,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20281,7 +19046,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20584,7 +19349,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150930</v>
+        <v>20150921</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20608,7 +19373,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20624,7 +19389,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20640,7 +19405,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20656,7 +19421,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20672,7 +19437,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20687,9 +19452,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20697,7 +19460,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20708,7 +19471,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20717,7 +19480,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20729,7 +19492,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20737,7 +19500,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20833,7 +19596,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20860,7 +19623,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20876,7 +19639,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
